--- a/forecast_summary_B089FTMG2B.xlsx
+++ b/forecast_summary_B089FTMG2B.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>3.042230965824454</v>
       </c>
       <c r="D2" t="n">
-        <v>3.364529143165579</v>
+        <v>3.380271427467326</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B550 AORUS PRO AC</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>4.361495608854908</v>
       </c>
       <c r="D3" t="n">
-        <v>4.686745817841141</v>
+        <v>4.693651398642175</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B550 AORUS PRO AC</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>3.323443619730345</v>
       </c>
       <c r="D4" t="n">
-        <v>3.661421112775823</v>
+        <v>3.644509065192615</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B550 AORUS PRO AC</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>1.169775600204601</v>
       </c>
       <c r="D5" t="n">
-        <v>1.526666107056457</v>
+        <v>1.495356887554007</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B550 AORUS PRO AC</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>0.6226087157270591</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9385634365501399</v>
+        <v>0.9454548856663947</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B550 AORUS PRO AC</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>2.630610463412638</v>
       </c>
       <c r="D7" t="n">
-        <v>2.979325574600746</v>
+        <v>2.979255592979265</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B550 AORUS PRO AC</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>5.051592159388917</v>
       </c>
       <c r="D8" t="n">
-        <v>5.399743443985297</v>
+        <v>5.375508388760416</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B550 AORUS PRO AC</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>4.872127441465993</v>
       </c>
       <c r="D9" t="n">
-        <v>5.194957202529145</v>
+        <v>5.201757003240516</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B550 AORUS PRO AC</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>1.521822585658461</v>
       </c>
       <c r="D10" t="n">
-        <v>1.838451665393461</v>
+        <v>1.86884476290832</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B550 AORUS PRO AC</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-2.376775491002601</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.046217826733928</v>
+        <v>-2.061880225780027</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B550 AORUS PRO AC</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-3.582131420553279</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.264162088187681</v>
+        <v>-3.250890726643192</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B550 AORUS PRO AC</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-1.304470621102819</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.9630231640280867</v>
+        <v>-0.9729765149126518</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B550 AORUS PRO AC</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>2.344876573619947</v>
       </c>
       <c r="D14" t="n">
-        <v>2.683599745860738</v>
+        <v>2.675802625193552</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B550 AORUS PRO AC</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>4.624658152816447</v>
       </c>
       <c r="D15" t="n">
-        <v>4.962709347480626</v>
+        <v>4.974297896701966</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B550 AORUS PRO AC</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>4.531829075824535</v>
       </c>
       <c r="D16" t="n">
-        <v>4.874076400933322</v>
+        <v>4.877416216836584</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B550 AORUS PRO AC</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>3.04934969328606</v>
       </c>
       <c r="D17" t="n">
-        <v>3.378118957953336</v>
+        <v>3.376175944591778</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B550 AORUS PRO AC</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>1.628096442764783</v>
       </c>
       <c r="D18" t="n">
-        <v>1.977332049074158</v>
+        <v>1.947239352057788</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B550 AORUS PRO AC</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>0.8679070600501352</v>
       </c>
       <c r="D19" t="n">
-        <v>1.206717526770198</v>
+        <v>1.211362240666026</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B550 AORUS PRO AC</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>0.5408264528632101</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8692995040533442</v>
+        <v>0.8758295646067562</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B550 AORUS PRO AC</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>0.3459504414776951</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7011264508149125</v>
+        <v>0.6774952588815089</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B550 AORUS PRO AC</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
